--- a/forecast_summary_B0BH7GTY9C.xlsx
+++ b/forecast_summary_B0BH7GTY9C.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>1419.097897852773</v>
       </c>
       <c r="D2" t="n">
-        <v>1672.310373047147</v>
+        <v>1666.022401508674</v>
       </c>
       <c r="E2" t="n">
         <v>741</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C3" t="n">
         <v>1328.011415180604</v>
       </c>
       <c r="D3" t="n">
-        <v>1574.731894140349</v>
+        <v>1567.328700884822</v>
       </c>
       <c r="E3" t="n">
         <v>506</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C4" t="n">
         <v>1101.610755211775</v>
       </c>
       <c r="D4" t="n">
-        <v>1353.449483267442</v>
+        <v>1325.393122199618</v>
       </c>
       <c r="E4" t="n">
         <v>601</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C5" t="n">
         <v>899.2834467398553</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.215483446613</v>
+        <v>1158.153593452534</v>
       </c>
       <c r="E5" t="n">
         <v>444</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>808.3786106913558</v>
       </c>
       <c r="D6" t="n">
-        <v>1058.64011522547</v>
+        <v>1059.450325638975</v>
       </c>
       <c r="E6" t="n">
         <v>423</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C7" t="n">
         <v>792.9363833419321</v>
       </c>
       <c r="D7" t="n">
-        <v>1031.435158312203</v>
+        <v>1060.44876818218</v>
       </c>
       <c r="E7" t="n">
         <v>427</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C8" t="n">
         <v>770.5571069771198</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.759570964703</v>
+        <v>1026.412092695006</v>
       </c>
       <c r="E8" t="n">
         <v>402</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C9" t="n">
         <v>722.4780250779972</v>
       </c>
       <c r="D9" t="n">
-        <v>989.4458582966703</v>
+        <v>965.0472813657964</v>
       </c>
       <c r="E9" t="n">
         <v>406</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C10" t="n">
         <v>709.0421932241758</v>
       </c>
       <c r="D10" t="n">
-        <v>950.4108988110927</v>
+        <v>965.5694232388063</v>
       </c>
       <c r="E10" t="n">
         <v>403</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>776.8220664799491</v>
       </c>
       <c r="D11" t="n">
-        <v>1025.739529659385</v>
+        <v>1027.838851837201</v>
       </c>
       <c r="E11" t="n">
         <v>510</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C12" t="n">
         <v>874.3168072103998</v>
       </c>
       <c r="D12" t="n">
-        <v>1128.28054198775</v>
+        <v>1138.513545285165</v>
       </c>
       <c r="E12" t="n">
         <v>469</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C13" t="n">
         <v>885.4593217690363</v>
       </c>
       <c r="D13" t="n">
-        <v>1132.90535075441</v>
+        <v>1138.711834289073</v>
       </c>
       <c r="E13" t="n">
         <v>430</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>750.0985694357383</v>
       </c>
       <c r="D14" t="n">
-        <v>996.3314131070708</v>
+        <v>1002.806346844727</v>
       </c>
       <c r="E14" t="n">
         <v>442</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>533.4962722794197</v>
       </c>
       <c r="D15" t="n">
-        <v>782.9185666310198</v>
+        <v>781.4249143536238</v>
       </c>
       <c r="E15" t="n">
         <v>431</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C16" t="n">
         <v>362.2263226851877</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6277464792444</v>
+        <v>589.0486992210464</v>
       </c>
       <c r="E16" t="n">
         <v>431</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C17" t="n">
         <v>298.1082624823581</v>
       </c>
       <c r="D17" t="n">
-        <v>525.1360325848766</v>
+        <v>546.4129412702472</v>
       </c>
       <c r="E17" t="n">
         <v>430</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C18" t="n">
         <v>291.9997711896551</v>
       </c>
       <c r="D18" t="n">
-        <v>536.6229900230632</v>
+        <v>563.6180283781439</v>
       </c>
       <c r="E18" t="n">
         <v>416</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C19" t="n">
         <v>262.6969764065569</v>
       </c>
       <c r="D19" t="n">
-        <v>509.3799094154062</v>
+        <v>511.5858194729536</v>
       </c>
       <c r="E19" t="n">
         <v>398</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" t="n">
         <v>200.0017866565276</v>
       </c>
       <c r="D20" t="n">
-        <v>450.7749585086605</v>
+        <v>443.5994898373276</v>
       </c>
       <c r="E20" t="n">
         <v>415</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>169.7076311006115</v>
       </c>
       <c r="D21" t="n">
-        <v>418.8293364992549</v>
+        <v>417.7719228654391</v>
       </c>
       <c r="E21" t="n">
         <v>402</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8044</t>
+          <t>8041</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4848</t>
+          <t>4845</t>
         </is>
       </c>
     </row>
